--- a/ifs-solver/src/main/resources/input/2020-Sem1-CAES-Wvl-OLD/Courses.xlsx
+++ b/ifs-solver/src/main/resources/input/2020-Sem1-CAES-Wvl-OLD/Courses.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talha\Documents\CS Honours\COMP700 - HP\student-lab-sectioning\ifs-solver\src\main\resources\input\CAES-2020-Sem1-Wvl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talha\Documents\CS Honours\COMP700 - HP\student-lab-sectioning\ifs-solver\src\main\resources\input\2020-Sem1-CAES-Wvl-OLD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8557C2B1-ADA9-4574-91EB-04E478B66148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70199CFF-72EC-4803-9366-CB302C87340F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="60" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,12 +36,6 @@
     <t>sectionNum</t>
   </si>
   <si>
-    <t>allocatedDay</t>
-  </si>
-  <si>
-    <t>allocatedTimeslot</t>
-  </si>
-  <si>
     <t>sessionLength</t>
   </si>
   <si>
@@ -94,6 +88,12 @@
   </si>
   <si>
     <t>STAT130</t>
+  </si>
+  <si>
+    <t>sessionDay</t>
+  </si>
+  <si>
+    <t>sessionStartTime</t>
   </si>
 </sst>
 </file>
@@ -129,8 +129,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,8 +424,9 @@
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -438,13 +440,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -452,30 +454,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G2">
         <v>200</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -484,21 +486,21 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G3">
         <v>200</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -507,21 +509,21 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G4">
         <v>200</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -530,21 +532,21 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G5">
         <v>200</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -553,21 +555,21 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G6">
         <v>144</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -576,21 +578,21 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G7">
         <v>144</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -599,21 +601,21 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G8">
         <v>144</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -622,21 +624,21 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G9">
         <v>144</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -645,21 +647,21 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G10">
         <v>144</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -668,21 +670,21 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G11">
         <v>144</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -691,21 +693,21 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G12">
         <v>192</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -714,21 +716,21 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G13">
         <v>48</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -737,21 +739,21 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G14">
         <v>48</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -760,21 +762,21 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G15">
         <v>48</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -783,21 +785,21 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G16">
         <v>48</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -806,21 +808,21 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G17">
         <v>48</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -829,21 +831,21 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G18">
         <v>250</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -852,21 +854,21 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G19">
         <v>250</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -875,21 +877,21 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G20">
         <v>40</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -898,21 +900,21 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G21">
         <v>40</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -921,21 +923,21 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G22">
         <v>40</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -944,21 +946,21 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G23">
         <v>154</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -967,21 +969,21 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G24">
         <v>136</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -990,21 +992,21 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G25">
         <v>491</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1013,21 +1015,21 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G26">
         <v>350</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1036,21 +1038,21 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G27">
         <v>491</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1059,21 +1061,21 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G28">
         <v>750</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1082,21 +1084,21 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G29">
         <v>500</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1105,21 +1107,21 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G30">
         <v>250</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1128,21 +1130,21 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G31">
         <v>270</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1151,21 +1153,21 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G32">
         <v>320</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1174,21 +1176,21 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G33">
         <v>320</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1197,21 +1199,21 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G34">
         <v>320</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1220,21 +1222,21 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G35">
         <v>491</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1243,16 +1245,16 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="G36">
         <v>544</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
